--- a/data/pca/factorExposure/factorExposure_2015-05-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01929070753691683</v>
+        <v>0.01168691400462931</v>
       </c>
       <c r="C2">
-        <v>0.02124563439160844</v>
+        <v>-0.05326089417620165</v>
       </c>
       <c r="D2">
-        <v>0.1085784759042784</v>
+        <v>0.1278359797043249</v>
       </c>
       <c r="E2">
-        <v>-0.0135884919638169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02603086872719646</v>
+      </c>
+      <c r="F2">
+        <v>0.03246618815105853</v>
+      </c>
+      <c r="G2">
+        <v>-0.1186294681808487</v>
+      </c>
+      <c r="H2">
+        <v>-0.08855625627572253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04253449981936019</v>
+        <v>0.01787596250416125</v>
       </c>
       <c r="C4">
-        <v>0.07266517416395493</v>
+        <v>-0.1066951659727624</v>
       </c>
       <c r="D4">
-        <v>0.1266229855013189</v>
+        <v>0.1323134231152751</v>
       </c>
       <c r="E4">
-        <v>-0.08808744478930142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01350578662721847</v>
+      </c>
+      <c r="F4">
+        <v>0.09210836669354977</v>
+      </c>
+      <c r="G4">
+        <v>-0.004993320231237225</v>
+      </c>
+      <c r="H4">
+        <v>-0.04510798350367139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0212252837033901</v>
+        <v>0.02797819298739535</v>
       </c>
       <c r="C6">
-        <v>0.01202386830717089</v>
+        <v>-0.03517925502779091</v>
       </c>
       <c r="D6">
-        <v>0.140111453571845</v>
+        <v>0.1224736611931354</v>
       </c>
       <c r="E6">
-        <v>-0.04009806630636698</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06342433019689707</v>
+      </c>
+      <c r="F6">
+        <v>0.04496914399149491</v>
+      </c>
+      <c r="G6">
+        <v>0.008871975049754687</v>
+      </c>
+      <c r="H6">
+        <v>-0.0379777085846246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002307859610185923</v>
+        <v>0.00833045623559546</v>
       </c>
       <c r="C7">
-        <v>0.0234037131064613</v>
+        <v>-0.0386952576622378</v>
       </c>
       <c r="D7">
-        <v>0.1126226683381252</v>
+        <v>0.09707114731837424</v>
       </c>
       <c r="E7">
-        <v>-0.007413966927565908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05607304688082797</v>
+      </c>
+      <c r="F7">
+        <v>0.01013827658480484</v>
+      </c>
+      <c r="G7">
+        <v>0.01612246731854619</v>
+      </c>
+      <c r="H7">
+        <v>-0.07842517477392304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.003541735892946523</v>
+        <v>-0.008508072475624462</v>
       </c>
       <c r="C8">
-        <v>0.02616370690935985</v>
+        <v>-0.03671839701853268</v>
       </c>
       <c r="D8">
-        <v>0.07677976621765106</v>
+        <v>0.07414057199876017</v>
       </c>
       <c r="E8">
-        <v>-0.02287305016378937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.04034747346356671</v>
+      </c>
+      <c r="F8">
+        <v>0.04747517499924818</v>
+      </c>
+      <c r="G8">
+        <v>-0.06246078869191907</v>
+      </c>
+      <c r="H8">
+        <v>-0.008901487353455339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03480271132382311</v>
+        <v>0.01270715278514489</v>
       </c>
       <c r="C9">
-        <v>0.06228253052610792</v>
+        <v>-0.08865938648373374</v>
       </c>
       <c r="D9">
-        <v>0.1282574603699878</v>
+        <v>0.1135166339658996</v>
       </c>
       <c r="E9">
-        <v>-0.07152493468600445</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01462641095260393</v>
+      </c>
+      <c r="F9">
+        <v>0.06094492972491048</v>
+      </c>
+      <c r="G9">
+        <v>0.01606574317289675</v>
+      </c>
+      <c r="H9">
+        <v>-0.0561334378652758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1777302698459592</v>
+        <v>0.2417902006673419</v>
       </c>
       <c r="C10">
-        <v>-0.1657701705990974</v>
+        <v>0.08820756055317891</v>
       </c>
       <c r="D10">
-        <v>1.55979607653495e-05</v>
+        <v>-0.003881308439144577</v>
       </c>
       <c r="E10">
-        <v>-0.04354086194943882</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01046443538176441</v>
+      </c>
+      <c r="F10">
+        <v>0.04254871867052704</v>
+      </c>
+      <c r="G10">
+        <v>9.096445223991317e-05</v>
+      </c>
+      <c r="H10">
+        <v>0.03214122494612055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01860121303148646</v>
+        <v>0.009543640943939063</v>
       </c>
       <c r="C11">
-        <v>0.04168551571210603</v>
+        <v>-0.05722063546851208</v>
       </c>
       <c r="D11">
-        <v>0.04482543082923967</v>
+        <v>0.04132876836851</v>
       </c>
       <c r="E11">
-        <v>0.01623472491487007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02065895976411422</v>
+      </c>
+      <c r="F11">
+        <v>-0.01460545741866798</v>
+      </c>
+      <c r="G11">
+        <v>0.01368082944449794</v>
+      </c>
+      <c r="H11">
+        <v>-0.04569526550166864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01864780634884777</v>
+        <v>0.009589720648258176</v>
       </c>
       <c r="C12">
-        <v>0.04104407613607775</v>
+        <v>-0.05062415883242271</v>
       </c>
       <c r="D12">
-        <v>0.05901984099690481</v>
+        <v>0.04546435735458708</v>
       </c>
       <c r="E12">
-        <v>0.004966906913155124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01598828542508983</v>
+      </c>
+      <c r="F12">
+        <v>-0.01699812416762093</v>
+      </c>
+      <c r="G12">
+        <v>0.03229264048389237</v>
+      </c>
+      <c r="H12">
+        <v>-0.06297682187031703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00333827171089135</v>
+        <v>-0.00269971433402929</v>
       </c>
       <c r="C13">
-        <v>0.02296173950839314</v>
+        <v>-0.04925343810766226</v>
       </c>
       <c r="D13">
-        <v>0.1388063606076405</v>
+        <v>0.1457949628214339</v>
       </c>
       <c r="E13">
-        <v>-0.03730919218673094</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.042634667562322</v>
+      </c>
+      <c r="F13">
+        <v>0.03386887662218137</v>
+      </c>
+      <c r="G13">
+        <v>-0.0134019834253837</v>
+      </c>
+      <c r="H13">
+        <v>-0.07819825118404801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.005814535642404456</v>
+        <v>0.001464499060768788</v>
       </c>
       <c r="C14">
-        <v>0.0158755255271576</v>
+        <v>-0.03120198944858292</v>
       </c>
       <c r="D14">
-        <v>0.09625877190148385</v>
+        <v>0.1013161181437625</v>
       </c>
       <c r="E14">
-        <v>-0.01429031896614139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05304113522718704</v>
+      </c>
+      <c r="F14">
+        <v>0.03604117489701594</v>
+      </c>
+      <c r="G14">
+        <v>-0.003388069012652039</v>
+      </c>
+      <c r="H14">
+        <v>-0.1309261572350184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.00304466611723664</v>
+        <v>-0.002464104450891472</v>
       </c>
       <c r="C15">
-        <v>0.0106102007763608</v>
+        <v>-0.02680946236804806</v>
       </c>
       <c r="D15">
-        <v>0.03252225276780212</v>
+        <v>0.05981341540221105</v>
       </c>
       <c r="E15">
-        <v>0.002471612467409103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01227116375960867</v>
+      </c>
+      <c r="F15">
+        <v>0.007422214831425344</v>
+      </c>
+      <c r="G15">
+        <v>-0.0155121599954777</v>
+      </c>
+      <c r="H15">
+        <v>-0.0372710513955229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01770268114532939</v>
+        <v>0.008958959531773208</v>
       </c>
       <c r="C16">
-        <v>0.0370568807874906</v>
+        <v>-0.05060000591265137</v>
       </c>
       <c r="D16">
-        <v>0.05208762624747191</v>
+        <v>0.04370182684455757</v>
       </c>
       <c r="E16">
-        <v>0.006558789481382348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02289090650348998</v>
+      </c>
+      <c r="F16">
+        <v>-0.009029939731948843</v>
+      </c>
+      <c r="G16">
+        <v>0.02376558777096884</v>
+      </c>
+      <c r="H16">
+        <v>-0.0427589763546448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003132044741368907</v>
+        <v>-0.0004042636585880099</v>
       </c>
       <c r="C19">
-        <v>0.01869379780085493</v>
+        <v>-0.01759956657984701</v>
       </c>
       <c r="D19">
-        <v>0.1024668024450335</v>
+        <v>0.06378203249245071</v>
       </c>
       <c r="E19">
-        <v>-0.04860218223521807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0103754878059387</v>
+      </c>
+      <c r="F19">
+        <v>0.01672493619507986</v>
+      </c>
+      <c r="G19">
+        <v>-0.01138556519124585</v>
+      </c>
+      <c r="H19">
+        <v>-0.05810724740137751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00214352639584222</v>
+        <v>0.004258210426707511</v>
       </c>
       <c r="C20">
-        <v>0.02486124286276352</v>
+        <v>-0.04283139589202485</v>
       </c>
       <c r="D20">
-        <v>0.0840452279992349</v>
+        <v>0.09088237663735438</v>
       </c>
       <c r="E20">
-        <v>-0.03393714864827212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02569768022362575</v>
+      </c>
+      <c r="F20">
+        <v>0.02707553878355165</v>
+      </c>
+      <c r="G20">
+        <v>0.01453638706537327</v>
+      </c>
+      <c r="H20">
+        <v>-0.0559057289404769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005153010797616263</v>
+        <v>0.00389610440722006</v>
       </c>
       <c r="C21">
-        <v>0.02706604771089937</v>
+        <v>-0.04575486123667205</v>
       </c>
       <c r="D21">
-        <v>0.1623291761924578</v>
+        <v>0.1318031222526034</v>
       </c>
       <c r="E21">
-        <v>-0.08484981568346811</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03384832224049097</v>
+      </c>
+      <c r="F21">
+        <v>0.098512124971112</v>
+      </c>
+      <c r="G21">
+        <v>-0.01348900035564032</v>
+      </c>
+      <c r="H21">
+        <v>-0.1966352239945731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001292554390496319</v>
+        <v>-0.01358465655112684</v>
       </c>
       <c r="C22">
-        <v>0.06310925477554372</v>
+        <v>-0.0890347770758539</v>
       </c>
       <c r="D22">
-        <v>0.250498336644146</v>
+        <v>0.2531225022791128</v>
       </c>
       <c r="E22">
-        <v>0.01141081184364731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06444200216140901</v>
+      </c>
+      <c r="F22">
+        <v>0.003421403995110804</v>
+      </c>
+      <c r="G22">
+        <v>-0.4087096316417041</v>
+      </c>
+      <c r="H22">
+        <v>0.3863867693478901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001011612983484559</v>
+        <v>-0.01036330807795248</v>
       </c>
       <c r="C23">
-        <v>0.06360814645350349</v>
+        <v>-0.09072120697001743</v>
       </c>
       <c r="D23">
-        <v>0.2498993718835857</v>
+        <v>0.2557642315926393</v>
       </c>
       <c r="E23">
-        <v>0.01128044821147879</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05970211729856986</v>
+      </c>
+      <c r="F23">
+        <v>0.006748706756618265</v>
+      </c>
+      <c r="G23">
+        <v>-0.3962112694684489</v>
+      </c>
+      <c r="H23">
+        <v>0.3715095894099312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02295017902630001</v>
+        <v>0.009414276971328595</v>
       </c>
       <c r="C24">
-        <v>0.05698007266649453</v>
+        <v>-0.06683601625547612</v>
       </c>
       <c r="D24">
-        <v>0.06176431949983101</v>
+        <v>0.04702153224431028</v>
       </c>
       <c r="E24">
-        <v>0.002251384361223708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02965070916228143</v>
+      </c>
+      <c r="F24">
+        <v>-0.0046967832632433</v>
+      </c>
+      <c r="G24">
+        <v>0.01279218992772437</v>
+      </c>
+      <c r="H24">
+        <v>-0.06867676297430039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02414479334548906</v>
+        <v>0.0135138580931057</v>
       </c>
       <c r="C25">
-        <v>0.04863044976583666</v>
+        <v>-0.06142996794869682</v>
       </c>
       <c r="D25">
-        <v>0.05828817588985915</v>
+        <v>0.04867015823019979</v>
       </c>
       <c r="E25">
-        <v>-0.002783027864944909</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01492074902111393</v>
+      </c>
+      <c r="F25">
+        <v>-0.006320021590245633</v>
+      </c>
+      <c r="G25">
+        <v>0.01542838813976414</v>
+      </c>
+      <c r="H25">
+        <v>-0.03460021222960502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006076865851722855</v>
+        <v>0.0142486720898623</v>
       </c>
       <c r="C26">
-        <v>0.01492802943437526</v>
+        <v>-0.02747123114315935</v>
       </c>
       <c r="D26">
-        <v>0.08711056734692771</v>
+        <v>0.06934385623013208</v>
       </c>
       <c r="E26">
-        <v>-0.02257765382884227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04508906386506403</v>
+      </c>
+      <c r="F26">
+        <v>0.04369519109940256</v>
+      </c>
+      <c r="G26">
+        <v>0.009958862242448571</v>
+      </c>
+      <c r="H26">
+        <v>-0.0981110957306823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2630610008287901</v>
+        <v>0.3208931328123001</v>
       </c>
       <c r="C28">
-        <v>-0.1936988057540812</v>
+        <v>0.08821705160951895</v>
       </c>
       <c r="D28">
-        <v>0.01638438651292757</v>
+        <v>-0.01789602457685237</v>
       </c>
       <c r="E28">
-        <v>-0.0569913124607548</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.050661007079454</v>
+      </c>
+      <c r="F28">
+        <v>0.04511365073627745</v>
+      </c>
+      <c r="G28">
+        <v>-0.05288580385337011</v>
+      </c>
+      <c r="H28">
+        <v>0.003781211247591319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.002247249457144258</v>
+        <v>0.0004316243018505879</v>
       </c>
       <c r="C29">
-        <v>0.02074818191129783</v>
+        <v>-0.03679525737830151</v>
       </c>
       <c r="D29">
-        <v>0.09680992903911605</v>
+        <v>0.103749046157678</v>
       </c>
       <c r="E29">
-        <v>-0.02024839251606384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.06006921928511819</v>
+      </c>
+      <c r="F29">
+        <v>0.04009400309927913</v>
+      </c>
+      <c r="G29">
+        <v>0.01019292849329991</v>
+      </c>
+      <c r="H29">
+        <v>-0.136076733001163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02226468594496524</v>
+        <v>0.01380915458902242</v>
       </c>
       <c r="C30">
-        <v>0.05905782734229116</v>
+        <v>-0.0877360085448898</v>
       </c>
       <c r="D30">
-        <v>0.1646527915827113</v>
+        <v>0.1458939417942292</v>
       </c>
       <c r="E30">
-        <v>-0.02865229476095131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05718183883336003</v>
+      </c>
+      <c r="F30">
+        <v>0.02702933444865621</v>
+      </c>
+      <c r="G30">
+        <v>-0.02172283044603552</v>
+      </c>
+      <c r="H30">
+        <v>-0.04450370129354446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03599960687364982</v>
+        <v>0.007700791577139247</v>
       </c>
       <c r="C31">
-        <v>0.08532540010615008</v>
+        <v>-0.09477714256030054</v>
       </c>
       <c r="D31">
-        <v>0.06823189688827702</v>
+        <v>0.03993288856320332</v>
       </c>
       <c r="E31">
-        <v>-0.01506647629674025</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02053980045973883</v>
+      </c>
+      <c r="F31">
+        <v>0.01457023740457597</v>
+      </c>
+      <c r="G31">
+        <v>0.003268978104220875</v>
+      </c>
+      <c r="H31">
+        <v>-0.04716354041709045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01659356838748835</v>
+        <v>0.008600948232840369</v>
       </c>
       <c r="C32">
-        <v>0.0329733564397746</v>
+        <v>-0.04977097474410008</v>
       </c>
       <c r="D32">
-        <v>0.09432053297561134</v>
+        <v>0.1065899934099548</v>
       </c>
       <c r="E32">
-        <v>-0.07016207792129205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.003790572766208398</v>
+      </c>
+      <c r="F32">
+        <v>0.05317695607136327</v>
+      </c>
+      <c r="G32">
+        <v>-0.01234967122180538</v>
+      </c>
+      <c r="H32">
+        <v>-0.05516320831546763</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008885029938725603</v>
+        <v>0.005537814494111036</v>
       </c>
       <c r="C33">
-        <v>0.04069421602523475</v>
+        <v>-0.06077391976199835</v>
       </c>
       <c r="D33">
-        <v>0.1387310914781293</v>
+        <v>0.1206709840213623</v>
       </c>
       <c r="E33">
-        <v>-0.0444583307899513</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02943380447209904</v>
+      </c>
+      <c r="F33">
+        <v>0.02696744078808449</v>
+      </c>
+      <c r="G33">
+        <v>0.005952743192474584</v>
+      </c>
+      <c r="H33">
+        <v>-0.06361075766406919</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02039384209358476</v>
+        <v>0.007151125364435921</v>
       </c>
       <c r="C34">
-        <v>0.05856834755897795</v>
+        <v>-0.06214106186564528</v>
       </c>
       <c r="D34">
-        <v>0.05228430354142118</v>
+        <v>0.02804902577769207</v>
       </c>
       <c r="E34">
-        <v>0.04520922898243987</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02952636190994013</v>
+      </c>
+      <c r="F34">
+        <v>-0.03970160774660126</v>
+      </c>
+      <c r="G34">
+        <v>0.01867596379226256</v>
+      </c>
+      <c r="H34">
+        <v>-0.05174332108283634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.00231791881168855</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01105912718606754</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03364569299857965</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.005008346459612271</v>
+      </c>
+      <c r="F35">
+        <v>0.01786711864460943</v>
+      </c>
+      <c r="G35">
+        <v>0.006395844090574316</v>
+      </c>
+      <c r="H35">
+        <v>-0.05133994742490683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006530104136834574</v>
+        <v>0.01081211297173123</v>
       </c>
       <c r="C36">
-        <v>0.006031186345950233</v>
+        <v>-0.02272709813586189</v>
       </c>
       <c r="D36">
-        <v>0.08633732390847036</v>
+        <v>0.07621753790997711</v>
       </c>
       <c r="E36">
-        <v>-0.04790292408691948</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02932497996370772</v>
+      </c>
+      <c r="F36">
+        <v>0.0499692114137013</v>
+      </c>
+      <c r="G36">
+        <v>0.001787626799944397</v>
+      </c>
+      <c r="H36">
+        <v>-0.06607856286323345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005610063156470904</v>
+        <v>0.0118073159300764</v>
       </c>
       <c r="C38">
-        <v>0.006532240219082818</v>
+        <v>-0.02326681517070378</v>
       </c>
       <c r="D38">
-        <v>0.09101161179292269</v>
+        <v>0.08744504788698357</v>
       </c>
       <c r="E38">
-        <v>-0.01314595706826986</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.006719742781659348</v>
+      </c>
+      <c r="F38">
+        <v>0.001419634385562165</v>
+      </c>
+      <c r="G38">
+        <v>-0.01850228106816552</v>
+      </c>
+      <c r="H38">
+        <v>-0.0659817298989234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01486468351746324</v>
+        <v>0.002998224002154793</v>
       </c>
       <c r="C39">
-        <v>0.05734358689318533</v>
+        <v>-0.07689220450517545</v>
       </c>
       <c r="D39">
-        <v>0.1116414592331159</v>
+        <v>0.09268370741967283</v>
       </c>
       <c r="E39">
-        <v>0.01092957524460663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05438881458474221</v>
+      </c>
+      <c r="F39">
+        <v>-0.005262608090489626</v>
+      </c>
+      <c r="G39">
+        <v>0.01728640242626895</v>
+      </c>
+      <c r="H39">
+        <v>-0.09304093813207272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01567854377667716</v>
+        <v>0.01317572402521114</v>
       </c>
       <c r="C40">
-        <v>0.02396166801659374</v>
+        <v>-0.03854183332876522</v>
       </c>
       <c r="D40">
-        <v>0.1149983195765765</v>
+        <v>0.09373712922346197</v>
       </c>
       <c r="E40">
-        <v>0.006382484391140221</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04271812141006531</v>
+      </c>
+      <c r="F40">
+        <v>-0.01311818236415094</v>
+      </c>
+      <c r="G40">
+        <v>-0.06028099261260404</v>
+      </c>
+      <c r="H40">
+        <v>-0.1093179511412772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009434245022525793</v>
+        <v>0.01543815749014357</v>
       </c>
       <c r="C41">
-        <v>0.004187801063060009</v>
+        <v>-0.01976272871526852</v>
       </c>
       <c r="D41">
-        <v>0.04507073302803156</v>
+        <v>0.04879930978209662</v>
       </c>
       <c r="E41">
-        <v>-0.03342140394899085</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.005794671192023833</v>
+      </c>
+      <c r="F41">
+        <v>0.0247965727296906</v>
+      </c>
+      <c r="G41">
+        <v>-0.0006773778649905194</v>
+      </c>
+      <c r="H41">
+        <v>-0.04717361817941196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00144550214119385</v>
+        <v>0.008169306105942034</v>
       </c>
       <c r="C43">
-        <v>0.004594138968434735</v>
+        <v>-0.01623687674583313</v>
       </c>
       <c r="D43">
-        <v>0.05468499043723846</v>
+        <v>0.05301040585426044</v>
       </c>
       <c r="E43">
-        <v>-0.02408776294317133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01029291496389195</v>
+      </c>
+      <c r="F43">
+        <v>0.02102620871976547</v>
+      </c>
+      <c r="G43">
+        <v>-0.003769904782112002</v>
+      </c>
+      <c r="H43">
+        <v>-0.05584606616032286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01659023615566617</v>
+        <v>0.01169436097133496</v>
       </c>
       <c r="C44">
-        <v>0.0249206195926257</v>
+        <v>-0.04921549107816582</v>
       </c>
       <c r="D44">
-        <v>0.1013919585741237</v>
+        <v>0.106442107811646</v>
       </c>
       <c r="E44">
-        <v>-0.0500989243282608</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03870890874073471</v>
+      </c>
+      <c r="F44">
+        <v>0.03662046083189659</v>
+      </c>
+      <c r="G44">
+        <v>-0.02799568574180281</v>
+      </c>
+      <c r="H44">
+        <v>-0.05448550185354947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00455493333807084</v>
+        <v>-0.0006874430738313573</v>
       </c>
       <c r="C46">
-        <v>0.02865612637448786</v>
+        <v>-0.0411031816289483</v>
       </c>
       <c r="D46">
-        <v>0.08875417063387062</v>
+        <v>0.0746974368727375</v>
       </c>
       <c r="E46">
-        <v>-0.02056101607876748</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04421503642363716</v>
+      </c>
+      <c r="F46">
+        <v>0.033547554176168</v>
+      </c>
+      <c r="G46">
+        <v>-0.004563088303674831</v>
+      </c>
+      <c r="H46">
+        <v>-0.1288773985403459</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07715844814139389</v>
+        <v>0.03119787949876339</v>
       </c>
       <c r="C47">
-        <v>0.1087294356991331</v>
+        <v>-0.12732352012293</v>
       </c>
       <c r="D47">
-        <v>0.05973435565025872</v>
+        <v>0.02393052679877098</v>
       </c>
       <c r="E47">
-        <v>-0.03309259110600039</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.005946067877619959</v>
+      </c>
+      <c r="F47">
+        <v>-0.004481621644681117</v>
+      </c>
+      <c r="G47">
+        <v>0.04805636639120884</v>
+      </c>
+      <c r="H47">
+        <v>-0.0546174302871759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.007730480476649344</v>
+        <v>0.01252123358581981</v>
       </c>
       <c r="C48">
-        <v>0.01493135947721583</v>
+        <v>-0.0328447048242074</v>
       </c>
       <c r="D48">
-        <v>0.09009713651236603</v>
+        <v>0.08145188660802095</v>
       </c>
       <c r="E48">
-        <v>-0.05975636591990454</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02313207436106884</v>
+      </c>
+      <c r="F48">
+        <v>0.05917279137105553</v>
+      </c>
+      <c r="G48">
+        <v>0.001222463759880563</v>
+      </c>
+      <c r="H48">
+        <v>-0.1067043979505464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03368074966883076</v>
+        <v>0.01190798225039523</v>
       </c>
       <c r="C50">
-        <v>0.05938159133758288</v>
+        <v>-0.07680297804099025</v>
       </c>
       <c r="D50">
-        <v>0.06299347133305717</v>
+        <v>0.04917816085243553</v>
       </c>
       <c r="E50">
-        <v>-0.009702964464181011</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01403428302367157</v>
+      </c>
+      <c r="F50">
+        <v>0.007775158057168462</v>
+      </c>
+      <c r="G50">
+        <v>-0.006667481904027055</v>
+      </c>
+      <c r="H50">
+        <v>-0.03551078490380433</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.002413736487310457</v>
+        <v>-0.0009554008294296499</v>
       </c>
       <c r="C51">
-        <v>0.004714438620553245</v>
+        <v>-0.01715036834350438</v>
       </c>
       <c r="D51">
-        <v>0.05598007000785293</v>
+        <v>0.0567237450671465</v>
       </c>
       <c r="E51">
-        <v>-0.006468694929076218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03910576664778696</v>
+      </c>
+      <c r="F51">
+        <v>0.04136919968038141</v>
+      </c>
+      <c r="G51">
+        <v>-0.02096907600372424</v>
+      </c>
+      <c r="H51">
+        <v>-0.05468175944072991</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1056368798475865</v>
+        <v>0.05266633075380651</v>
       </c>
       <c r="C53">
-        <v>0.1272297880187475</v>
+        <v>-0.157495367561761</v>
       </c>
       <c r="D53">
-        <v>0.007796835906222787</v>
+        <v>-0.02360036693255694</v>
       </c>
       <c r="E53">
-        <v>-0.06038722176538051</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03034816925044486</v>
+      </c>
+      <c r="F53">
+        <v>0.04831384651702376</v>
+      </c>
+      <c r="G53">
+        <v>0.001031052568372923</v>
+      </c>
+      <c r="H53">
+        <v>-0.00856482056991407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.009625257599266412</v>
+        <v>0.009090713110252153</v>
       </c>
       <c r="C54">
-        <v>0.0204551083127418</v>
+        <v>-0.03816542055304508</v>
       </c>
       <c r="D54">
-        <v>0.09238439906592326</v>
+        <v>0.07789472594678759</v>
       </c>
       <c r="E54">
-        <v>-0.008471960208800698</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01731059325081097</v>
+      </c>
+      <c r="F54">
+        <v>0.002887185296347466</v>
+      </c>
+      <c r="G54">
+        <v>-0.01444846002511372</v>
+      </c>
+      <c r="H54">
+        <v>-0.08091857558765077</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09276589849658812</v>
+        <v>0.04014340091750547</v>
       </c>
       <c r="C55">
-        <v>0.1077864194288518</v>
+        <v>-0.131210133416834</v>
       </c>
       <c r="D55">
-        <v>0.006289852087828788</v>
+        <v>-0.0327534042702536</v>
       </c>
       <c r="E55">
-        <v>-0.009281600558837465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004345539903578564</v>
+      </c>
+      <c r="F55">
+        <v>0.01194954255810364</v>
+      </c>
+      <c r="G55">
+        <v>-0.002494952855551363</v>
+      </c>
+      <c r="H55">
+        <v>-0.01556368736454486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1307174238058144</v>
+        <v>0.0548169580733374</v>
       </c>
       <c r="C56">
-        <v>0.1454286660184783</v>
+        <v>-0.1896830969749821</v>
       </c>
       <c r="D56">
-        <v>0.0001976302627106792</v>
+        <v>-0.03427093874998909</v>
       </c>
       <c r="E56">
-        <v>-0.009863480273075055</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03194917236623026</v>
+      </c>
+      <c r="F56">
+        <v>0.01397587679307012</v>
+      </c>
+      <c r="G56">
+        <v>-0.05146148843102665</v>
+      </c>
+      <c r="H56">
+        <v>-0.01134947420650211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.006722580758034062</v>
+        <v>0.00647911672206155</v>
       </c>
       <c r="C58">
-        <v>0.01051800137602496</v>
+        <v>-0.05629353899875693</v>
       </c>
       <c r="D58">
-        <v>0.2185847164804474</v>
+        <v>0.2729084865795385</v>
       </c>
       <c r="E58">
-        <v>-0.08431592480307558</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02063244558750484</v>
+      </c>
+      <c r="F58">
+        <v>0.1050394175171513</v>
+      </c>
+      <c r="G58">
+        <v>-0.1384996056225509</v>
+      </c>
+      <c r="H58">
+        <v>0.08504115645678759</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1844731085567736</v>
+        <v>0.254139954776871</v>
       </c>
       <c r="C59">
-        <v>-0.1443335249600125</v>
+        <v>0.05873456579550192</v>
       </c>
       <c r="D59">
-        <v>0.0448258085383034</v>
+        <v>0.05632573465354358</v>
       </c>
       <c r="E59">
-        <v>-0.0368847231965773</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01944083285709072</v>
+      </c>
+      <c r="F59">
+        <v>0.02282788798830532</v>
+      </c>
+      <c r="G59">
+        <v>-0.01053655856958169</v>
+      </c>
+      <c r="H59">
+        <v>0.0008088381505528414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1812367972008555</v>
+        <v>0.1463368052463034</v>
       </c>
       <c r="C60">
-        <v>0.1077530426141385</v>
+        <v>-0.1760336824914364</v>
       </c>
       <c r="D60">
-        <v>0.2074294933591784</v>
+        <v>0.08470639493119268</v>
       </c>
       <c r="E60">
-        <v>0.1573384226569083</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1628122351446794</v>
+      </c>
+      <c r="F60">
+        <v>-0.2219300214211191</v>
+      </c>
+      <c r="G60">
+        <v>0.2190779494691177</v>
+      </c>
+      <c r="H60">
+        <v>0.2377229194935044</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02492532551174612</v>
+        <v>0.01090868036592499</v>
       </c>
       <c r="C61">
-        <v>0.0537185424730762</v>
+        <v>-0.07530862001918863</v>
       </c>
       <c r="D61">
-        <v>0.09765859335770882</v>
+        <v>0.07665960387110066</v>
       </c>
       <c r="E61">
-        <v>0.002390498898820488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03854892690096294</v>
+      </c>
+      <c r="F61">
+        <v>-0.01362952011569984</v>
+      </c>
+      <c r="G61">
+        <v>0.03483344471965956</v>
+      </c>
+      <c r="H61">
+        <v>-0.08519882981766665</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.006042153653775625</v>
+        <v>0.007856752229645748</v>
       </c>
       <c r="C63">
-        <v>0.0245089208304224</v>
+        <v>-0.03715394496367467</v>
       </c>
       <c r="D63">
-        <v>0.09831780964781932</v>
+        <v>0.0688827033901471</v>
       </c>
       <c r="E63">
-        <v>-0.01859667919591582</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.06034488863087607</v>
+      </c>
+      <c r="F63">
+        <v>0.02577584247629999</v>
+      </c>
+      <c r="G63">
+        <v>0.003694534884619766</v>
+      </c>
+      <c r="H63">
+        <v>-0.06810346681613785</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05372505436152055</v>
+        <v>0.0154485367506996</v>
       </c>
       <c r="C64">
-        <v>0.08451939438988575</v>
+        <v>-0.1049070367075327</v>
       </c>
       <c r="D64">
-        <v>0.03169644407216011</v>
+        <v>0.01471646015400036</v>
       </c>
       <c r="E64">
-        <v>-0.01570959436215013</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02517409196272421</v>
+      </c>
+      <c r="F64">
+        <v>0.01757173390148149</v>
+      </c>
+      <c r="G64">
+        <v>0.05216857692370907</v>
+      </c>
+      <c r="H64">
+        <v>-0.08031437553558371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02507276376678323</v>
+        <v>0.02137252798835509</v>
       </c>
       <c r="C65">
-        <v>0.0156868790482594</v>
+        <v>-0.04428381684543956</v>
       </c>
       <c r="D65">
-        <v>0.115848686803759</v>
+        <v>0.1142448132971502</v>
       </c>
       <c r="E65">
-        <v>-0.008216431814379562</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04509989404882565</v>
+      </c>
+      <c r="F65">
+        <v>-0.006614235730486993</v>
+      </c>
+      <c r="G65">
+        <v>0.02906347275070301</v>
+      </c>
+      <c r="H65">
+        <v>-0.0137492226705606</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01933113726077126</v>
+        <v>0.0004861003405850442</v>
       </c>
       <c r="C66">
-        <v>0.06551575748038763</v>
+        <v>-0.09525485188632971</v>
       </c>
       <c r="D66">
-        <v>0.119059105265831</v>
+        <v>0.11654423237566</v>
       </c>
       <c r="E66">
-        <v>0.01456011154417321</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04253711003472584</v>
+      </c>
+      <c r="F66">
+        <v>-0.01160421252105195</v>
+      </c>
+      <c r="G66">
+        <v>-0.008050555491525604</v>
+      </c>
+      <c r="H66">
+        <v>-0.05986342865400969</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02345216007888884</v>
+        <v>0.02171546657600576</v>
       </c>
       <c r="C67">
-        <v>0.02001139542291417</v>
+        <v>-0.03485033754838604</v>
       </c>
       <c r="D67">
-        <v>0.04801802415087342</v>
+        <v>0.04160873246857826</v>
       </c>
       <c r="E67">
-        <v>0.01456922194921735</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01214429724003801</v>
+      </c>
+      <c r="F67">
+        <v>-0.02701075937239398</v>
+      </c>
+      <c r="G67">
+        <v>-0.001723522841207827</v>
+      </c>
+      <c r="H67">
+        <v>-0.06815684607972493</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2070226446182095</v>
+        <v>0.2750054024087679</v>
       </c>
       <c r="C68">
-        <v>-0.1529895811077004</v>
+        <v>0.06564076679208319</v>
       </c>
       <c r="D68">
-        <v>0.03032926083796769</v>
+        <v>0.02604287213819923</v>
       </c>
       <c r="E68">
-        <v>-0.007567600274905622</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.003925384102410409</v>
+      </c>
+      <c r="F68">
+        <v>0.02469867785539859</v>
+      </c>
+      <c r="G68">
+        <v>-0.07232188399842512</v>
+      </c>
+      <c r="H68">
+        <v>0.04847357359146299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05263828786992093</v>
+        <v>0.01606004291212822</v>
       </c>
       <c r="C69">
-        <v>0.1162614001460659</v>
+        <v>-0.118726501930131</v>
       </c>
       <c r="D69">
-        <v>0.07935026126285716</v>
+        <v>0.02967342709923123</v>
       </c>
       <c r="E69">
-        <v>-0.02084689779658789</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.00891065586739786</v>
+      </c>
+      <c r="F69">
+        <v>-0.007407204749697598</v>
+      </c>
+      <c r="G69">
+        <v>0.02786335926662044</v>
+      </c>
+      <c r="H69">
+        <v>-0.0461550505799901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2179525165114198</v>
+        <v>0.2764466969139064</v>
       </c>
       <c r="C71">
-        <v>-0.1755179310209916</v>
+        <v>0.077695913861835</v>
       </c>
       <c r="D71">
-        <v>0.01748173485083056</v>
+        <v>0.01528873033280743</v>
       </c>
       <c r="E71">
-        <v>-0.01159714929298107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0007490981647473988</v>
+      </c>
+      <c r="F71">
+        <v>0.02043509042682356</v>
+      </c>
+      <c r="G71">
+        <v>-0.03965580014101696</v>
+      </c>
+      <c r="H71">
+        <v>-0.0210946950855535</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09988861342819709</v>
+        <v>0.05317374195940008</v>
       </c>
       <c r="C72">
-        <v>0.07962647921916872</v>
+        <v>-0.1258894359931557</v>
       </c>
       <c r="D72">
-        <v>0.1081343739186876</v>
+        <v>0.05725516254627195</v>
       </c>
       <c r="E72">
-        <v>0.04011828770395195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.06825110377522205</v>
+      </c>
+      <c r="F72">
+        <v>-0.02396899449176218</v>
+      </c>
+      <c r="G72">
+        <v>0.03577571842316606</v>
+      </c>
+      <c r="H72">
+        <v>-0.04452300036169234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1691930102956806</v>
+        <v>0.137805772171132</v>
       </c>
       <c r="C73">
-        <v>0.07252961700748842</v>
+        <v>-0.150462258469849</v>
       </c>
       <c r="D73">
-        <v>0.2761553787728073</v>
+        <v>0.09414209117034431</v>
       </c>
       <c r="E73">
-        <v>0.232940693665206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2855489562820073</v>
+      </c>
+      <c r="F73">
+        <v>-0.3096840471646676</v>
+      </c>
+      <c r="G73">
+        <v>0.398800841021247</v>
+      </c>
+      <c r="H73">
+        <v>0.1803376515121395</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1047212698778365</v>
+        <v>0.0474480160914431</v>
       </c>
       <c r="C74">
-        <v>0.1177234854252683</v>
+        <v>-0.1460054278023779</v>
       </c>
       <c r="D74">
-        <v>-0.01979406743756616</v>
+        <v>-0.04395270047000554</v>
       </c>
       <c r="E74">
-        <v>-0.03855349520979743</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01204151288762487</v>
+      </c>
+      <c r="F74">
+        <v>0.03540567318186524</v>
+      </c>
+      <c r="G74">
+        <v>0.007039181879965503</v>
+      </c>
+      <c r="H74">
+        <v>0.009323104319351112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2272637948904624</v>
+        <v>0.1027964459287389</v>
       </c>
       <c r="C75">
-        <v>0.2054256673353501</v>
+        <v>-0.268755162099023</v>
       </c>
       <c r="D75">
-        <v>-0.1050448679644263</v>
+        <v>-0.1367795911029515</v>
       </c>
       <c r="E75">
-        <v>0.03016461969923149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09116183237492857</v>
+      </c>
+      <c r="F75">
+        <v>-0.028470771024454</v>
+      </c>
+      <c r="G75">
+        <v>-0.09811980176058645</v>
+      </c>
+      <c r="H75">
+        <v>-0.02403935560559502</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1372612769805932</v>
+        <v>0.05942586797686122</v>
       </c>
       <c r="C76">
-        <v>0.142036773144571</v>
+        <v>-0.182639284685583</v>
       </c>
       <c r="D76">
-        <v>0.01309721085095652</v>
+        <v>-0.04116049902583125</v>
       </c>
       <c r="E76">
-        <v>-0.01162265520219087</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02309965199193302</v>
+      </c>
+      <c r="F76">
+        <v>0.002557178027016052</v>
+      </c>
+      <c r="G76">
+        <v>-0.0337004369559751</v>
+      </c>
+      <c r="H76">
+        <v>-0.03845617703407853</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01999997724753324</v>
+        <v>0.0008136811887585473</v>
       </c>
       <c r="C77">
-        <v>0.06656941799129608</v>
+        <v>-0.1071726369215844</v>
       </c>
       <c r="D77">
-        <v>-0.008107465874755374</v>
+        <v>0.3270820346088399</v>
       </c>
       <c r="E77">
-        <v>-0.2359170343927525</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8398488589982215</v>
+      </c>
+      <c r="F77">
+        <v>-0.217860524969206</v>
+      </c>
+      <c r="G77">
+        <v>0.1953973571166554</v>
+      </c>
+      <c r="H77">
+        <v>0.1544814659661357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02601955127611539</v>
+        <v>0.01709744459175276</v>
       </c>
       <c r="C78">
-        <v>0.06982634858660952</v>
+        <v>-0.09145408071522078</v>
       </c>
       <c r="D78">
-        <v>0.1488456046337064</v>
+        <v>0.1123126454294026</v>
       </c>
       <c r="E78">
-        <v>-0.04738666501564161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06872679701916376</v>
+      </c>
+      <c r="F78">
+        <v>0.04217062952153276</v>
+      </c>
+      <c r="G78">
+        <v>-0.03626529384694096</v>
+      </c>
+      <c r="H78">
+        <v>-0.03063585342974668</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.09426285627942159</v>
+        <v>0.0337057230987618</v>
       </c>
       <c r="C79">
-        <v>0.1781328205095779</v>
+        <v>-0.1942576168590895</v>
       </c>
       <c r="D79">
-        <v>-0.131050607264947</v>
+        <v>-0.07774642299777894</v>
       </c>
       <c r="E79">
-        <v>-0.7949817759374688</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05484622533375466</v>
+      </c>
+      <c r="F79">
+        <v>0.7815712602145543</v>
+      </c>
+      <c r="G79">
+        <v>0.3676114445252809</v>
+      </c>
+      <c r="H79">
+        <v>0.3305529270369013</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002789510677968936</v>
+        <v>0.003331703720508477</v>
       </c>
       <c r="C80">
-        <v>0.04535051689482412</v>
+        <v>-0.04684366242703177</v>
       </c>
       <c r="D80">
-        <v>0.05518206287230674</v>
+        <v>0.04309528847707376</v>
       </c>
       <c r="E80">
-        <v>0.004261077050968701</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04601438646146059</v>
+      </c>
+      <c r="F80">
+        <v>0.004912161668201336</v>
+      </c>
+      <c r="G80">
+        <v>-0.008090413135305945</v>
+      </c>
+      <c r="H80">
+        <v>-0.0331583737619341</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1173236187949721</v>
+        <v>0.04129519224373315</v>
       </c>
       <c r="C81">
-        <v>0.137352747776734</v>
+        <v>-0.1683597762879029</v>
       </c>
       <c r="D81">
-        <v>-0.07075296917833987</v>
+        <v>-0.07866781237280618</v>
       </c>
       <c r="E81">
-        <v>-0.0564655077577735</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05002198816933864</v>
+      </c>
+      <c r="F81">
+        <v>0.0649396001551559</v>
+      </c>
+      <c r="G81">
+        <v>-0.04841998399943775</v>
+      </c>
+      <c r="H81">
+        <v>-0.0815401066871079</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2457975731942479</v>
+        <v>0.08682156192489388</v>
       </c>
       <c r="C82">
-        <v>0.3044332275115968</v>
+        <v>-0.3215469270174273</v>
       </c>
       <c r="D82">
-        <v>-0.2009548608898776</v>
+        <v>-0.2448572865714995</v>
       </c>
       <c r="E82">
-        <v>0.1495453087111544</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06365285636333187</v>
+      </c>
+      <c r="F82">
+        <v>-0.110147560559447</v>
+      </c>
+      <c r="G82">
+        <v>-0.09094244549788974</v>
+      </c>
+      <c r="H82">
+        <v>-0.1194291237233959</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.007678315624810652</v>
+        <v>-0.01293797615890085</v>
       </c>
       <c r="C83">
-        <v>0.05117805739248314</v>
+        <v>-0.02602748124983777</v>
       </c>
       <c r="D83">
-        <v>-0.002248347856918359</v>
+        <v>0.02526528917055893</v>
       </c>
       <c r="E83">
-        <v>-0.05946464296105686</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07890618021670459</v>
+      </c>
+      <c r="F83">
+        <v>0.07112253042559726</v>
+      </c>
+      <c r="G83">
+        <v>-0.03697303611904385</v>
+      </c>
+      <c r="H83">
+        <v>-0.1000620151393871</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001496962219078533</v>
+        <v>-0.0005814540459674306</v>
       </c>
       <c r="C84">
-        <v>-0.0002737684870739235</v>
+        <v>-0.01972762378003361</v>
       </c>
       <c r="D84">
-        <v>0.009170427153293638</v>
+        <v>0.04923780391684313</v>
       </c>
       <c r="E84">
-        <v>0.002244017075232017</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.004769185255409006</v>
+      </c>
+      <c r="F84">
+        <v>0.02784727173908116</v>
+      </c>
+      <c r="G84">
+        <v>-0.04763039463058332</v>
+      </c>
+      <c r="H84">
+        <v>-0.01604015046346873</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.137674661249724</v>
+        <v>0.05469720119984108</v>
       </c>
       <c r="C85">
-        <v>0.1414072652327498</v>
+        <v>-0.1830363185702265</v>
       </c>
       <c r="D85">
-        <v>-0.0413878131677264</v>
+        <v>-0.09237976121610149</v>
       </c>
       <c r="E85">
-        <v>-0.02234554432505575</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0006853296127367498</v>
+      </c>
+      <c r="F85">
+        <v>0.07280302619508151</v>
+      </c>
+      <c r="G85">
+        <v>-0.02028702983997821</v>
+      </c>
+      <c r="H85">
+        <v>0.001788516436772895</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01601058618274322</v>
+        <v>0.01262089816334345</v>
       </c>
       <c r="C86">
-        <v>0.01446724495056953</v>
+        <v>-0.03544149025440783</v>
       </c>
       <c r="D86">
-        <v>0.08553792616572654</v>
+        <v>0.1022850820627435</v>
       </c>
       <c r="E86">
-        <v>-0.05292146860243502</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02081801756885815</v>
+      </c>
+      <c r="F86">
+        <v>-0.00341655166378545</v>
+      </c>
+      <c r="G86">
+        <v>0.01988753396582768</v>
+      </c>
+      <c r="H86">
+        <v>-0.02246985471598589</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.01994782604885408</v>
+        <v>0.01297332777082381</v>
       </c>
       <c r="C87">
-        <v>0.02632128873583842</v>
+        <v>-0.05980121378398502</v>
       </c>
       <c r="D87">
-        <v>0.1313253013533622</v>
+        <v>0.1405711874945861</v>
       </c>
       <c r="E87">
-        <v>-0.05578440119914714</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01631542458809653</v>
+      </c>
+      <c r="F87">
+        <v>0.03901723672803623</v>
+      </c>
+      <c r="G87">
+        <v>-0.049936018436641</v>
+      </c>
+      <c r="H87">
+        <v>-0.04595993724761691</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05138195889422928</v>
+        <v>0.03204742621203959</v>
       </c>
       <c r="C88">
-        <v>0.04547796742627234</v>
+        <v>-0.06905112957964468</v>
       </c>
       <c r="D88">
-        <v>0.03035132488493393</v>
+        <v>0.0156594862097136</v>
       </c>
       <c r="E88">
-        <v>-0.03212211570465685</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02841734723910639</v>
+      </c>
+      <c r="F88">
+        <v>0.02012291210410208</v>
+      </c>
+      <c r="G88">
+        <v>0.015066347046394</v>
+      </c>
+      <c r="H88">
+        <v>-0.01741364497187763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3288622684016633</v>
+        <v>0.4092230978304339</v>
       </c>
       <c r="C89">
-        <v>-0.3200375161723203</v>
+        <v>0.1488582683675119</v>
       </c>
       <c r="D89">
-        <v>0.01020003235847388</v>
+        <v>0.03050099908665543</v>
       </c>
       <c r="E89">
-        <v>-0.1025970326114057</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.0517375427472927</v>
+      </c>
+      <c r="F89">
+        <v>0.06661053922679637</v>
+      </c>
+      <c r="G89">
+        <v>-0.01448456911122096</v>
+      </c>
+      <c r="H89">
+        <v>-0.1135558758482669</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2609445924428463</v>
+        <v>0.3219351480019757</v>
       </c>
       <c r="C90">
-        <v>-0.232404846200019</v>
+        <v>0.1001214855032499</v>
       </c>
       <c r="D90">
-        <v>0.04215363286369276</v>
+        <v>0.03721451861093516</v>
       </c>
       <c r="E90">
-        <v>0.01108188709828783</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01002999162512147</v>
+      </c>
+      <c r="F90">
+        <v>-0.008182830740665521</v>
+      </c>
+      <c r="G90">
+        <v>-0.06608636600859842</v>
+      </c>
+      <c r="H90">
+        <v>0.007532106468520218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1508140846455778</v>
+        <v>0.06433927910013043</v>
       </c>
       <c r="C91">
-        <v>0.189313892055302</v>
+        <v>-0.20857981137579</v>
       </c>
       <c r="D91">
-        <v>-0.09388306709243453</v>
+        <v>-0.1085907129298085</v>
       </c>
       <c r="E91">
-        <v>-0.08497813062183394</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05859580281763127</v>
+      </c>
+      <c r="F91">
+        <v>0.07011415216154249</v>
+      </c>
+      <c r="G91">
+        <v>-0.002736746523205168</v>
+      </c>
+      <c r="H91">
+        <v>-0.001897568184974624</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2463368097981148</v>
+        <v>0.3402399421766195</v>
       </c>
       <c r="C92">
-        <v>-0.2553921472530824</v>
+        <v>0.1374465336121347</v>
       </c>
       <c r="D92">
-        <v>-0.05319731937913273</v>
+        <v>0.005784732343640553</v>
       </c>
       <c r="E92">
-        <v>-0.04527942712013105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.0619431616981914</v>
+      </c>
+      <c r="F92">
+        <v>0.03160481704019785</v>
+      </c>
+      <c r="G92">
+        <v>-0.02920719602303054</v>
+      </c>
+      <c r="H92">
+        <v>-0.01791388259328342</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2869694935674091</v>
+        <v>0.3366072700191017</v>
       </c>
       <c r="C93">
-        <v>-0.2438916258366134</v>
+        <v>0.1096437034379997</v>
       </c>
       <c r="D93">
-        <v>0.01317360121477545</v>
+        <v>-0.0190800563239687</v>
       </c>
       <c r="E93">
-        <v>0.002228710934111421</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02599001994304897</v>
+      </c>
+      <c r="F93">
+        <v>0.006594043620928504</v>
+      </c>
+      <c r="G93">
+        <v>0.01682682575286902</v>
+      </c>
+      <c r="H93">
+        <v>0.005601158901533804</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2842933844800974</v>
+        <v>0.1210400327709316</v>
       </c>
       <c r="C94">
-        <v>0.2782566915261749</v>
+        <v>-0.3464372490236896</v>
       </c>
       <c r="D94">
-        <v>-0.338229936908628</v>
+        <v>-0.3621113349109367</v>
       </c>
       <c r="E94">
-        <v>0.2241372016698438</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06430579753708898</v>
+      </c>
+      <c r="F94">
+        <v>-0.1067225214016833</v>
+      </c>
+      <c r="G94">
+        <v>-0.3215504234741974</v>
+      </c>
+      <c r="H94">
+        <v>0.02990864934444389</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01216305702085201</v>
+        <v>0.01741105500059076</v>
       </c>
       <c r="C95">
-        <v>0.0385593133385801</v>
+        <v>-0.06402724015405403</v>
       </c>
       <c r="D95">
-        <v>0.01399615101701038</v>
+        <v>0.1079632278243182</v>
       </c>
       <c r="E95">
-        <v>-0.09844249920997143</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1575806704305105</v>
+      </c>
+      <c r="F95">
+        <v>-0.01325357599911426</v>
+      </c>
+      <c r="G95">
+        <v>0.08983827212730379</v>
+      </c>
+      <c r="H95">
+        <v>-0.332255300989489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001213025722127036</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.00081173197527173</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0005149725984851</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003824545883659511</v>
+      </c>
+      <c r="F97">
+        <v>0.0003763502393340049</v>
+      </c>
+      <c r="G97">
+        <v>-0.0005038933483401322</v>
+      </c>
+      <c r="H97">
+        <v>-0.004198224135368175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1425726900276126</v>
+        <v>0.1133907281677363</v>
       </c>
       <c r="C98">
-        <v>0.09293718929071823</v>
+        <v>-0.1560284017436981</v>
       </c>
       <c r="D98">
-        <v>0.1573906465856205</v>
+        <v>0.06032696083180582</v>
       </c>
       <c r="E98">
-        <v>0.1919853821613266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1980307787411361</v>
+      </c>
+      <c r="F98">
+        <v>-0.2462763507587737</v>
+      </c>
+      <c r="G98">
+        <v>0.2806015688636495</v>
+      </c>
+      <c r="H98">
+        <v>0.1889010463590209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001511414486232479</v>
+        <v>0.0009163161925003551</v>
       </c>
       <c r="C101">
-        <v>0.02004018006592442</v>
+        <v>-0.036069900589407</v>
       </c>
       <c r="D101">
-        <v>0.09652993593118304</v>
+        <v>0.1029612510641559</v>
       </c>
       <c r="E101">
-        <v>-0.02139688276949709</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05937316354616228</v>
+      </c>
+      <c r="F101">
+        <v>0.04032356452181686</v>
+      </c>
+      <c r="G101">
+        <v>0.009380356122793568</v>
+      </c>
+      <c r="H101">
+        <v>-0.136523347797379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1025295873962283</v>
+        <v>0.02672423701835468</v>
       </c>
       <c r="C102">
-        <v>0.1617202998056235</v>
+        <v>-0.1490552524177343</v>
       </c>
       <c r="D102">
-        <v>-0.06322134923468861</v>
+        <v>-0.09993381299109393</v>
       </c>
       <c r="E102">
-        <v>0.05341989488153476</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03860127593519942</v>
+      </c>
+      <c r="F102">
+        <v>-0.06435157485413372</v>
+      </c>
+      <c r="G102">
+        <v>0.007496975912332729</v>
+      </c>
+      <c r="H102">
+        <v>-0.04925749746371436</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
